--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2427,28 +2427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.8421266705516</v>
+        <v>245.343677165565</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.7470111748915</v>
+        <v>335.6900428969</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.475717476893</v>
+        <v>303.6522563468541</v>
       </c>
       <c r="AD2" t="n">
-        <v>208842.1266705515</v>
+        <v>245343.677165565</v>
       </c>
       <c r="AE2" t="n">
-        <v>285747.0111748915</v>
+        <v>335690.0428969</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.532647027527239e-06</v>
+        <v>4.6860600844615e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.001157407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>258475.717476893</v>
+        <v>303652.2563468541</v>
       </c>
     </row>
     <row r="3">
@@ -2533,28 +2533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.7269270359519</v>
+        <v>158.0328769172873</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.9710811861556</v>
+        <v>216.2275541166115</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.5085779993256</v>
+        <v>195.5910998290623</v>
       </c>
       <c r="AD3" t="n">
-        <v>133726.9270359519</v>
+        <v>158032.8769172873</v>
       </c>
       <c r="AE3" t="n">
-        <v>182971.0811861556</v>
+        <v>216227.5541166115</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.435018071550402e-06</v>
+        <v>6.35568276966425e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.424189814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>165508.5779993256</v>
+        <v>195591.0998290623</v>
       </c>
     </row>
     <row r="4">
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.7167233618958</v>
+        <v>146.0226732432313</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.5381906665294</v>
+        <v>199.7946635969853</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.6440194871806</v>
+        <v>180.7265413169173</v>
       </c>
       <c r="AD4" t="n">
-        <v>121716.7233618958</v>
+        <v>146022.6732432313</v>
       </c>
       <c r="AE4" t="n">
-        <v>166538.1906665294</v>
+        <v>199794.6635969853</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.770768163765515e-06</v>
+        <v>6.976908344480988e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.030671296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>150644.0194871806</v>
+        <v>180726.5413169173</v>
       </c>
     </row>
     <row r="5">
@@ -2745,28 +2745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.4105825645369</v>
+        <v>126.8017837918929</v>
       </c>
       <c r="AB5" t="n">
-        <v>140.1226771007761</v>
+        <v>173.4957946838813</v>
       </c>
       <c r="AC5" t="n">
-        <v>126.7495654617282</v>
+        <v>156.9375995421771</v>
       </c>
       <c r="AD5" t="n">
-        <v>102410.5825645369</v>
+        <v>126801.7837918929</v>
       </c>
       <c r="AE5" t="n">
-        <v>140122.6771007761</v>
+        <v>173495.7946838812</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.968657471988032e-06</v>
+        <v>7.343055374968939e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>126749.5654617282</v>
+        <v>156937.5995421771</v>
       </c>
     </row>
     <row r="6">
@@ -2851,28 +2851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.81591146582727</v>
+        <v>122.2071126931833</v>
       </c>
       <c r="AB6" t="n">
-        <v>133.8360454009419</v>
+        <v>167.209162984047</v>
       </c>
       <c r="AC6" t="n">
-        <v>121.0629210679812</v>
+        <v>151.2509551484301</v>
       </c>
       <c r="AD6" t="n">
-        <v>97815.91146582727</v>
+        <v>122207.1126931833</v>
       </c>
       <c r="AE6" t="n">
-        <v>133836.0454009419</v>
+        <v>167209.162984047</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.06838990200782e-06</v>
+        <v>7.527586481894793e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.735532407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>121062.9210679812</v>
+        <v>151250.9551484301</v>
       </c>
     </row>
     <row r="7">
@@ -2957,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>97.12877889181918</v>
+        <v>121.5199801191752</v>
       </c>
       <c r="AB7" t="n">
-        <v>132.8958802990348</v>
+        <v>166.2689978821399</v>
       </c>
       <c r="AC7" t="n">
-        <v>120.2124840038698</v>
+        <v>150.4005180843187</v>
       </c>
       <c r="AD7" t="n">
-        <v>97128.77889181918</v>
+        <v>121519.9801191752</v>
       </c>
       <c r="AE7" t="n">
-        <v>132895.8802990348</v>
+        <v>166268.9978821399</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.087926744539341e-06</v>
+        <v>7.563734755605387e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.718171296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>120212.4840038698</v>
+        <v>150400.5180843187</v>
       </c>
     </row>
   </sheetData>
@@ -3254,28 +3254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.4645145304519</v>
+        <v>184.9920283044371</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.9228720921077</v>
+        <v>253.1142543983102</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.8383032468987</v>
+        <v>228.9573852066964</v>
       </c>
       <c r="AD2" t="n">
-        <v>161464.5145304519</v>
+        <v>184992.0283044371</v>
       </c>
       <c r="AE2" t="n">
-        <v>220922.8720921077</v>
+        <v>253114.2543983102</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.978834552398167e-06</v>
+        <v>5.678118387552489e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>199838.3032468987</v>
+        <v>228957.3852066964</v>
       </c>
     </row>
     <row r="3">
@@ -3360,28 +3360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.1309139554173</v>
+        <v>139.5730868748309</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.8954398080704</v>
+        <v>190.9700549920753</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.7306820439823</v>
+        <v>172.7441409718411</v>
       </c>
       <c r="AD3" t="n">
-        <v>116130.9139554173</v>
+        <v>139573.0868748309</v>
       </c>
       <c r="AE3" t="n">
-        <v>158895.4398080704</v>
+        <v>190970.0549920753</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.831047775125513e-06</v>
+        <v>7.302568314181614e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.10300925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>143730.6820439823</v>
+        <v>172744.1409718411</v>
       </c>
     </row>
     <row r="4">
@@ -3466,28 +3466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.97012577907869</v>
+        <v>118.4975500445128</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.9423158771306</v>
+        <v>162.1335757137847</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.5408036250375</v>
+        <v>146.6597748036085</v>
       </c>
       <c r="AD4" t="n">
-        <v>94970.12577907869</v>
+        <v>118497.5500445128</v>
       </c>
       <c r="AE4" t="n">
-        <v>129942.3158771306</v>
+        <v>162133.5757137847</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.129588617844292e-06</v>
+        <v>7.871633234927952e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.80787037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>117540.8036250375</v>
+        <v>146659.7748036085</v>
       </c>
     </row>
     <row r="5">
@@ -3572,28 +3572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.49700137165337</v>
+        <v>114.0244256370875</v>
       </c>
       <c r="AB5" t="n">
-        <v>123.8219897225731</v>
+        <v>156.0132495592272</v>
       </c>
       <c r="AC5" t="n">
-        <v>112.0045928087373</v>
+        <v>141.1235639873083</v>
       </c>
       <c r="AD5" t="n">
-        <v>90497.00137165337</v>
+        <v>114024.4256370875</v>
       </c>
       <c r="AE5" t="n">
-        <v>123821.9897225731</v>
+        <v>156013.2495592272</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.26476052260941e-06</v>
+        <v>8.129291746814556e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.686342592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>112004.5928087373</v>
+        <v>141123.5639873083</v>
       </c>
     </row>
     <row r="6">
@@ -3678,28 +3678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>90.77804390231593</v>
+        <v>114.3054681677501</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.2065245117468</v>
+        <v>156.3977843484009</v>
       </c>
       <c r="AC6" t="n">
-        <v>112.3524281373303</v>
+        <v>141.4713993159014</v>
       </c>
       <c r="AD6" t="n">
-        <v>90778.04390231593</v>
+        <v>114305.4681677501</v>
       </c>
       <c r="AE6" t="n">
-        <v>124206.5245117468</v>
+        <v>156397.7843484009</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.264380215803399e-06</v>
+        <v>8.128566823348638e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.686342592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>112352.4281373303</v>
+        <v>141471.3993159014</v>
       </c>
     </row>
   </sheetData>
@@ -3975,28 +3975,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.65956161166557</v>
+        <v>98.58644659404706</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.2572382950952</v>
+        <v>134.8903255569824</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.11619660520884</v>
+        <v>122.016582205621</v>
       </c>
       <c r="AD2" t="n">
-        <v>77659.56161166557</v>
+        <v>98586.44659404705</v>
       </c>
       <c r="AE2" t="n">
-        <v>106257.2382950952</v>
+        <v>134890.3255569824</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.478647999630032e-06</v>
+        <v>9.538348163888908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.917824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>96116.19660520884</v>
+        <v>122016.582205621</v>
       </c>
     </row>
     <row r="3">
@@ -4081,28 +4081,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.84462456306538</v>
+        <v>95.77150954544688</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.4057172389444</v>
+        <v>131.0388045008316</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.63225931301209</v>
+        <v>118.5326449134242</v>
       </c>
       <c r="AD3" t="n">
-        <v>74844.62456306539</v>
+        <v>95771.50954544687</v>
       </c>
       <c r="AE3" t="n">
-        <v>102405.7172389444</v>
+        <v>131038.8045008316</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.634633181597763e-06</v>
+        <v>9.87055577970035e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.784722222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>92632.25931301208</v>
+        <v>118532.6449134242</v>
       </c>
     </row>
   </sheetData>
@@ -4378,28 +4378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.8206078027445</v>
+        <v>129.6789485491243</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.5249123051567</v>
+        <v>177.4324584362739</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.4453417273075</v>
+        <v>160.498553631185</v>
       </c>
       <c r="AD2" t="n">
-        <v>107820.6078027445</v>
+        <v>129678.9485491243</v>
       </c>
       <c r="AE2" t="n">
-        <v>147524.9123051567</v>
+        <v>177432.4584362739</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.850937456175784e-06</v>
+        <v>7.818734427044804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.357638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>133445.3417273075</v>
+        <v>160498.553631185</v>
       </c>
     </row>
     <row r="3">
@@ -4484,28 +4484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.31157834550247</v>
+        <v>102.2551704379028</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.8858445890499</v>
+        <v>139.9100353728163</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.3984938072506</v>
+        <v>126.5572179618403</v>
       </c>
       <c r="AD3" t="n">
-        <v>80311.57834550246</v>
+        <v>102255.1704379029</v>
       </c>
       <c r="AE3" t="n">
-        <v>109885.8445890499</v>
+        <v>139910.0353728163</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.525789611179043e-06</v>
+        <v>9.188917619458744e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.706597222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>99398.4938072506</v>
+        <v>126557.2179618403</v>
       </c>
     </row>
     <row r="4">
@@ -4590,28 +4590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.43687430933245</v>
+        <v>102.3804664017328</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.0572800544299</v>
+        <v>140.0814708381963</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.55356771242592</v>
+        <v>126.7122918670156</v>
       </c>
       <c r="AD4" t="n">
-        <v>80436.87430933246</v>
+        <v>102380.4664017328</v>
       </c>
       <c r="AE4" t="n">
-        <v>110057.2800544299</v>
+        <v>140081.4708381963</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.526021598856941e-06</v>
+        <v>9.189388634650362e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.706597222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>99553.56771242592</v>
+        <v>126712.2918670156</v>
       </c>
     </row>
   </sheetData>
@@ -4887,28 +4887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.74319695595553</v>
+        <v>90.83617354994223</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.79396304468374</v>
+        <v>124.2860600601281</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.5560830629034</v>
+        <v>112.424372924603</v>
       </c>
       <c r="AD2" t="n">
-        <v>70743.19695595553</v>
+        <v>90836.17354994224</v>
       </c>
       <c r="AE2" t="n">
-        <v>96793.96304468374</v>
+        <v>124286.0600601281</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.649689828829357e-06</v>
+        <v>1.035395105259574e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.917824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>87556.0830629034</v>
+        <v>112424.372924603</v>
       </c>
     </row>
   </sheetData>
@@ -5184,28 +5184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.034335005097</v>
+        <v>204.4954337872798</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.2802344224217</v>
+        <v>279.799674209446</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.2071734530603</v>
+        <v>253.0959860042879</v>
       </c>
       <c r="AD2" t="n">
-        <v>169034.335005097</v>
+        <v>204495.4337872798</v>
       </c>
       <c r="AE2" t="n">
-        <v>231280.2344224217</v>
+        <v>279799.6742094461</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.868352354567139e-06</v>
+        <v>5.423376420824291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.43113425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>209207.1734530603</v>
+        <v>253095.9860042879</v>
       </c>
     </row>
     <row r="3">
@@ -5290,28 +5290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.0655341316961</v>
+        <v>143.7347434408589</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.2789607164436</v>
+        <v>196.6642171050418</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.6004072726811</v>
+        <v>177.8948602445546</v>
       </c>
       <c r="AD3" t="n">
-        <v>120065.5341316961</v>
+        <v>143734.7434408589</v>
       </c>
       <c r="AE3" t="n">
-        <v>164278.9607164436</v>
+        <v>196664.2171050418</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.735846688328181e-06</v>
+        <v>7.063603189835835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.169560185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>148600.4072726811</v>
+        <v>177894.8602445546</v>
       </c>
     </row>
     <row r="4">
@@ -5396,28 +5396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.3511342840209</v>
+        <v>122.1055949392043</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.5683608731583</v>
+        <v>167.0702619144058</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.7253453793407</v>
+        <v>151.1253106019265</v>
       </c>
       <c r="AD4" t="n">
-        <v>98351.1342840209</v>
+        <v>122105.5949392043</v>
       </c>
       <c r="AE4" t="n">
-        <v>134568.3608731583</v>
+        <v>167070.2619144058</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.045166136407699e-06</v>
+        <v>7.648453164263052e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.851273148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>121725.3453793407</v>
+        <v>151125.3106019265</v>
       </c>
     </row>
     <row r="5">
@@ -5502,28 +5502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>92.52127025302249</v>
+        <v>116.2757309082058</v>
       </c>
       <c r="AB5" t="n">
-        <v>126.5916837105012</v>
+        <v>159.0935847517487</v>
       </c>
       <c r="AC5" t="n">
-        <v>114.5099510897483</v>
+        <v>143.9099163123341</v>
       </c>
       <c r="AD5" t="n">
-        <v>92521.27025302249</v>
+        <v>116275.7309082058</v>
       </c>
       <c r="AE5" t="n">
-        <v>126591.6837105012</v>
+        <v>159093.5847517487</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.204806199689816e-06</v>
+        <v>7.950294795973529e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.703703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>114509.9510897483</v>
+        <v>143909.9163123341</v>
       </c>
     </row>
     <row r="6">
@@ -5608,28 +5608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>92.15603981796684</v>
+        <v>115.9105004731502</v>
       </c>
       <c r="AB6" t="n">
-        <v>126.0919593164286</v>
+        <v>158.5938603576761</v>
       </c>
       <c r="AC6" t="n">
-        <v>114.0579196904783</v>
+        <v>143.4578849130641</v>
       </c>
       <c r="AD6" t="n">
-        <v>92156.03981796684</v>
+        <v>115910.5004731502</v>
       </c>
       <c r="AE6" t="n">
-        <v>126091.9593164286</v>
+        <v>158593.8603576761</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.224135300100704e-06</v>
+        <v>7.986841556777599e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.689236111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>114057.9196904783</v>
+        <v>143457.8849130641</v>
       </c>
     </row>
   </sheetData>
@@ -5905,28 +5905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.73793093253752</v>
+        <v>98.2518575561142</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.7327107742083</v>
+        <v>134.4325260742563</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.45085206175447</v>
+        <v>121.6024744630005</v>
       </c>
       <c r="AD2" t="n">
-        <v>78737.93093253752</v>
+        <v>98251.85755611421</v>
       </c>
       <c r="AE2" t="n">
-        <v>107732.7107742083</v>
+        <v>134432.5260742563</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.593389526055615e-06</v>
+        <v>1.053065208889326e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.059606481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>97450.85206175447</v>
+        <v>121602.4744630005</v>
       </c>
     </row>
   </sheetData>
@@ -6202,28 +6202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.0827423738117</v>
+        <v>161.1832735192106</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.8802146106801</v>
+        <v>220.5380657330498</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.2853309706992</v>
+        <v>199.4902222666701</v>
       </c>
       <c r="AD2" t="n">
-        <v>127082.7423738117</v>
+        <v>161183.2735192106</v>
       </c>
       <c r="AE2" t="n">
-        <v>173880.2146106801</v>
+        <v>220538.0657330498</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.390594338461484e-06</v>
+        <v>6.645518045593915e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.777199074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>157285.3309706992</v>
+        <v>199490.2222666701</v>
       </c>
     </row>
     <row r="3">
@@ -6308,28 +6308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.31538956121847</v>
+        <v>115.1059708945321</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.3099886651599</v>
+        <v>157.4930674948714</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.2551406241729</v>
+        <v>142.4621501761127</v>
       </c>
       <c r="AD3" t="n">
-        <v>92315.38956121847</v>
+        <v>115105.9708945321</v>
       </c>
       <c r="AE3" t="n">
-        <v>126309.9886651599</v>
+        <v>157493.0674948714</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.158532721367003e-06</v>
+        <v>8.150666663230826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.894675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>114255.1406241729</v>
+        <v>142462.1501761127</v>
       </c>
     </row>
     <row r="4">
@@ -6414,28 +6414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.41814757702477</v>
+        <v>108.2087289103384</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.8728778975498</v>
+        <v>148.0559567272613</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.7186944631524</v>
+        <v>133.9257040150921</v>
       </c>
       <c r="AD4" t="n">
-        <v>85418.14757702476</v>
+        <v>108208.7289103384</v>
       </c>
       <c r="AE4" t="n">
-        <v>116872.8778975498</v>
+        <v>148055.9567272613</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.400574092289335e-06</v>
+        <v>8.625064405242781e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.680555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>105718.6944631524</v>
+        <v>133925.7040150921</v>
       </c>
     </row>
     <row r="5">
@@ -6520,28 +6520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.74459650034218</v>
+        <v>108.5351778336559</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.3195397163426</v>
+        <v>148.5026185460541</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.1227275048534</v>
+        <v>134.3297370567932</v>
       </c>
       <c r="AD5" t="n">
-        <v>85744.59650034219</v>
+        <v>108535.1778336558</v>
       </c>
       <c r="AE5" t="n">
-        <v>117319.5397163426</v>
+        <v>148502.6185460541</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.3945286556428e-06</v>
+        <v>8.61321543296311e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.686342592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>106122.7275048535</v>
+        <v>134329.7370567932</v>
       </c>
     </row>
   </sheetData>
@@ -6817,28 +6817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.5813229404203</v>
+        <v>176.8731669809802</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.1367415767641</v>
+        <v>242.0056701566795</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.0815858895069</v>
+        <v>218.9089886540874</v>
       </c>
       <c r="AD2" t="n">
-        <v>153581.3229404203</v>
+        <v>176873.1669809802</v>
       </c>
       <c r="AE2" t="n">
-        <v>210136.7415767641</v>
+        <v>242005.6701566795</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.107167087328725e-06</v>
+        <v>5.974159732727788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.107060185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>190081.5858895069</v>
+        <v>218908.9886540874</v>
       </c>
     </row>
     <row r="3">
@@ -6923,28 +6923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.1155428322009</v>
+        <v>135.3220460181892</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.4014318916168</v>
+        <v>185.1535933493346</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.7610145321848</v>
+        <v>167.4827942648265</v>
       </c>
       <c r="AD3" t="n">
-        <v>112115.5428322009</v>
+        <v>135322.0460181892</v>
       </c>
       <c r="AE3" t="n">
-        <v>153401.4318916168</v>
+        <v>185153.5933493346</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.928479765081848e-06</v>
+        <v>7.55330014890343e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.039351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>138761.0145321848</v>
+        <v>167482.7942648265</v>
       </c>
     </row>
     <row r="4">
@@ -7029,28 +7029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.0681944756459</v>
+        <v>114.3599490076547</v>
       </c>
       <c r="AB4" t="n">
-        <v>124.6035213267165</v>
+        <v>156.4723274370834</v>
       </c>
       <c r="AC4" t="n">
-        <v>112.711536133468</v>
+        <v>141.538828116822</v>
       </c>
       <c r="AD4" t="n">
-        <v>91068.1944756459</v>
+        <v>114359.9490076547</v>
       </c>
       <c r="AE4" t="n">
-        <v>124603.5213267165</v>
+        <v>156472.3274370834</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.240660851009778e-06</v>
+        <v>8.153531684721242e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.741319444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>112711.536133468</v>
+        <v>141538.828116822</v>
       </c>
     </row>
     <row r="5">
@@ -7135,28 +7135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.56561883224028</v>
+        <v>111.8573733642491</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.1793869255653</v>
+        <v>153.0481930359323</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.6141963137588</v>
+        <v>138.4414882971128</v>
       </c>
       <c r="AD5" t="n">
-        <v>88565.61883224027</v>
+        <v>111857.3733642491</v>
       </c>
       <c r="AE5" t="n">
-        <v>121179.3869255653</v>
+        <v>153048.1930359323</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.320735409241469e-06</v>
+        <v>8.307491284562072e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>109614.1963137588</v>
+        <v>138441.4882971128</v>
       </c>
     </row>
   </sheetData>
@@ -7432,28 +7432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.1393752116937</v>
+        <v>223.4179415298019</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.0523491710767</v>
+        <v>305.690284104876</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.615072337993</v>
+        <v>276.5156324290053</v>
       </c>
       <c r="AD2" t="n">
-        <v>187139.3752116937</v>
+        <v>223417.9415298019</v>
       </c>
       <c r="AE2" t="n">
-        <v>256052.3491710768</v>
+        <v>305690.2841048759</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.636694313362991e-06</v>
+        <v>4.91196152195978e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.810185185185184</v>
       </c>
       <c r="AH2" t="n">
-        <v>231615.072337993</v>
+        <v>276515.6324290053</v>
       </c>
     </row>
     <row r="3">
@@ -7538,28 +7538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.2409465977618</v>
+        <v>153.3414061304801</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.8331648431378</v>
+        <v>209.8084768130214</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.9564557774638</v>
+        <v>189.7846502540932</v>
       </c>
       <c r="AD3" t="n">
-        <v>129240.9465977619</v>
+        <v>153341.4061304801</v>
       </c>
       <c r="AE3" t="n">
-        <v>176833.1648431378</v>
+        <v>209808.4768130214</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.527591749458033e-06</v>
+        <v>6.571635874019955e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.343171296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>159956.4557774638</v>
+        <v>189784.6502540932</v>
       </c>
     </row>
     <row r="4">
@@ -7644,28 +7644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.4476220988943</v>
+        <v>129.633332977633</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.2780885764099</v>
+        <v>177.3700451989426</v>
       </c>
       <c r="AC4" t="n">
-        <v>130.5083902982855</v>
+        <v>160.442097025627</v>
       </c>
       <c r="AD4" t="n">
-        <v>105447.6220988943</v>
+        <v>129633.332977633</v>
       </c>
       <c r="AE4" t="n">
-        <v>144278.0885764098</v>
+        <v>177370.0451989427</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.87015502172442e-06</v>
+        <v>7.209805268052957e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>130508.3902982855</v>
+        <v>160442.097025627</v>
       </c>
     </row>
     <row r="5">
@@ -7750,28 +7750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.057874563906</v>
+        <v>123.2435854426447</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.5353541032772</v>
+        <v>168.62731072581</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.6000501327609</v>
+        <v>152.5337568601025</v>
       </c>
       <c r="AD5" t="n">
-        <v>99057.87456390599</v>
+        <v>123243.5854426447</v>
       </c>
       <c r="AE5" t="n">
-        <v>135535.3541032772</v>
+        <v>168627.31072581</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.04839803481682e-06</v>
+        <v>7.541858482348913e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.784722222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>122600.0501327609</v>
+        <v>152533.7568601025</v>
       </c>
     </row>
     <row r="6">
@@ -7856,28 +7856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>95.31125474287255</v>
+        <v>119.4969656216113</v>
       </c>
       <c r="AB6" t="n">
-        <v>130.4090635749409</v>
+        <v>163.5010201974737</v>
       </c>
       <c r="AC6" t="n">
-        <v>117.9630055776534</v>
+        <v>147.896712304995</v>
       </c>
       <c r="AD6" t="n">
-        <v>95311.25474287255</v>
+        <v>119496.9656216113</v>
       </c>
       <c r="AE6" t="n">
-        <v>130409.0635749409</v>
+        <v>163501.0201974736</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.127011303139426e-06</v>
+        <v>7.688309038698627e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.71238425925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>117963.0055776534</v>
+        <v>147896.712304995</v>
       </c>
     </row>
     <row r="7">
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>95.18703546321703</v>
+        <v>119.3727463419558</v>
       </c>
       <c r="AB7" t="n">
-        <v>130.2391012763484</v>
+        <v>163.3310578988812</v>
       </c>
       <c r="AC7" t="n">
-        <v>117.809264242295</v>
+        <v>147.7429709696366</v>
       </c>
       <c r="AD7" t="n">
-        <v>95187.03546321703</v>
+        <v>119372.7463419558</v>
       </c>
       <c r="AE7" t="n">
-        <v>130239.1012763484</v>
+        <v>163331.0578988812</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.144004474271788e-06</v>
+        <v>7.71996602764695e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.695023148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>117809.264242295</v>
+        <v>147742.9709696366</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.4080994651865</v>
+        <v>135.5638150973837</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.1699649004409</v>
+        <v>185.4843924695873</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.3607612327989</v>
+        <v>167.7820223813219</v>
       </c>
       <c r="AD2" t="n">
-        <v>113408.0994651865</v>
+        <v>135563.8150973837</v>
       </c>
       <c r="AE2" t="n">
-        <v>155169.9649004409</v>
+        <v>185484.3924695873</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.709618673912298e-06</v>
+        <v>7.435920819783596e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.467592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>140360.7612327989</v>
+        <v>167782.0223813219</v>
       </c>
     </row>
     <row r="3">
@@ -8365,28 +8365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.47064299646651</v>
+        <v>105.7116099746843</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.2082162125931</v>
+        <v>144.6392884343887</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.3083443495308</v>
+        <v>130.8351177487661</v>
       </c>
       <c r="AD3" t="n">
-        <v>83470.64299646651</v>
+        <v>105711.6099746843</v>
       </c>
       <c r="AE3" t="n">
-        <v>114208.2162125931</v>
+        <v>144639.2884343887</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.420467128987706e-06</v>
+        <v>8.860814667762754e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>103308.3443495308</v>
+        <v>130835.1177487661</v>
       </c>
     </row>
     <row r="4">
@@ -8471,28 +8471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.12525516503415</v>
+        <v>104.3662221432519</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.3673972273061</v>
+        <v>142.7984694491017</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.6432105445934</v>
+        <v>129.1699839438287</v>
       </c>
       <c r="AD4" t="n">
-        <v>82125.25516503415</v>
+        <v>104366.2221432519</v>
       </c>
       <c r="AE4" t="n">
-        <v>112367.3972273061</v>
+        <v>142798.4694491017</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.485698871682751e-06</v>
+        <v>8.991571523454687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.695023148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>101643.2105445934</v>
+        <v>129169.9839438287</v>
       </c>
     </row>
   </sheetData>
@@ -8768,28 +8768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.64706796198526</v>
+        <v>115.8523146297085</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.5002939194786</v>
+        <v>158.514247919701</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.1409676226419</v>
+        <v>143.3858705744325</v>
       </c>
       <c r="AD2" t="n">
-        <v>94647.06796198526</v>
+        <v>115852.3146297085</v>
       </c>
       <c r="AE2" t="n">
-        <v>129500.2939194786</v>
+        <v>158514.247919701</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.258230521652654e-06</v>
+        <v>8.908484552164011e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.053819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>117140.9676226419</v>
+        <v>143385.8705744325</v>
       </c>
     </row>
     <row r="3">
@@ -8874,28 +8874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.93611252216071</v>
+        <v>98.2266105359045</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.2673833345138</v>
+        <v>134.3979819873855</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.22081201279489</v>
+        <v>121.5712272152977</v>
       </c>
       <c r="AD3" t="n">
-        <v>76936.11252216071</v>
+        <v>98226.6105359045</v>
       </c>
       <c r="AE3" t="n">
-        <v>105267.3833345138</v>
+        <v>134397.9819873855</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.596309374607424e-06</v>
+        <v>9.615766655292614e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.755787037037038</v>
       </c>
       <c r="AH3" t="n">
-        <v>95220.81201279489</v>
+        <v>121571.2272152977</v>
       </c>
     </row>
   </sheetData>
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.2480537002826</v>
+        <v>93.77882410607032</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.2212185487507</v>
+        <v>128.3123243716008</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.65624611184664</v>
+        <v>116.0663762210875</v>
       </c>
       <c r="AD2" t="n">
-        <v>73248.0537002826</v>
+        <v>93778.82410607031</v>
       </c>
       <c r="AE2" t="n">
-        <v>100221.2185487507</v>
+        <v>128312.3243716008</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.627048151134531e-06</v>
+        <v>1.005853532074915e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.859953703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>90656.24611184665</v>
+        <v>116066.3762210875</v>
       </c>
     </row>
     <row r="3">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.01752657774544</v>
+        <v>93.54829698353316</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.90580116955667</v>
+        <v>127.9969069924067</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.37093172463169</v>
+        <v>115.7810618338725</v>
       </c>
       <c r="AD3" t="n">
-        <v>73017.52657774545</v>
+        <v>93548.29698353316</v>
       </c>
       <c r="AE3" t="n">
-        <v>99905.80116955667</v>
+        <v>127996.9069924067</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.653214421005038e-06</v>
+        <v>1.011541701748278e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.836805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>90370.93172463169</v>
+        <v>115781.0618338725</v>
       </c>
     </row>
   </sheetData>
@@ -15755,28 +15755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.26989910188362</v>
+        <v>95.20940243794394</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.3558407416294</v>
+        <v>130.269704757931</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.39626576561702</v>
+        <v>117.8369469705476</v>
       </c>
       <c r="AD2" t="n">
-        <v>76269.89910188362</v>
+        <v>95209.40243794394</v>
       </c>
       <c r="AE2" t="n">
-        <v>104355.8407416294</v>
+        <v>130269.704757931</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.458396854751498e-06</v>
+        <v>1.060441713311287e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.299768518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>94396.26576561702</v>
+        <v>117836.9469705476</v>
       </c>
     </row>
   </sheetData>
@@ -16052,28 +16052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.3378606719407</v>
+        <v>168.8222887208293</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.8069875394049</v>
+        <v>230.990103341465</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.264706623423</v>
+        <v>208.9447320752684</v>
       </c>
       <c r="AD2" t="n">
-        <v>134337.8606719407</v>
+        <v>168822.2887208293</v>
       </c>
       <c r="AE2" t="n">
-        <v>183806.9875394049</v>
+        <v>230990.103341465</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.244484920106222e-06</v>
+        <v>6.296176689926717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.939236111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>166264.706623423</v>
+        <v>208944.7320752684</v>
       </c>
     </row>
     <row r="3">
@@ -16158,28 +16158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.01818087369205</v>
+        <v>119.0646934759989</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.3763110945074</v>
+        <v>162.9095663773459</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.8379403514932</v>
+        <v>147.3617060073494</v>
       </c>
       <c r="AD3" t="n">
-        <v>96018.18087369205</v>
+        <v>119064.6934759989</v>
       </c>
       <c r="AE3" t="n">
-        <v>131376.3110945074</v>
+        <v>162909.5663773459</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.056714012223916e-06</v>
+        <v>7.872370755425513e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.949652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>118837.9403514932</v>
+        <v>147361.7060073494</v>
       </c>
     </row>
     <row r="4">
@@ -16264,28 +16264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.57554362036777</v>
+        <v>110.6220562226746</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.8247223416464</v>
+        <v>151.3579776244849</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.388819016445</v>
+        <v>136.9125846723011</v>
       </c>
       <c r="AD4" t="n">
-        <v>87575.54362036777</v>
+        <v>110622.0562226746</v>
       </c>
       <c r="AE4" t="n">
-        <v>119824.7223416464</v>
+        <v>151357.9776244849</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.332405493603562e-06</v>
+        <v>8.407371632734898e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.700810185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>108388.819016445</v>
+        <v>136912.5846723011</v>
       </c>
     </row>
     <row r="5">
@@ -16370,28 +16370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>87.17474030057501</v>
+        <v>110.2212529028819</v>
       </c>
       <c r="AB5" t="n">
-        <v>119.2763255573117</v>
+        <v>150.8095808401502</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.8927604515273</v>
+        <v>136.4165261073834</v>
       </c>
       <c r="AD5" t="n">
-        <v>87174.74030057501</v>
+        <v>110221.2529028819</v>
       </c>
       <c r="AE5" t="n">
-        <v>119276.3255573117</v>
+        <v>150809.5808401502</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.34758320425215e-06</v>
+        <v>8.43682516706939e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.686342592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>107892.7604515273</v>
+        <v>136416.5261073835</v>
       </c>
     </row>
   </sheetData>
@@ -16667,28 +16667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.0131819696664</v>
+        <v>213.9736740820393</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.5654889581108</v>
+        <v>292.7682207311798</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.3199405383301</v>
+        <v>264.8268326474607</v>
       </c>
       <c r="AD2" t="n">
-        <v>178013.1819696664</v>
+        <v>213973.6740820393</v>
       </c>
       <c r="AE2" t="n">
-        <v>243565.4889581109</v>
+        <v>292768.2207311798</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.747714664616069e-06</v>
+        <v>5.155790444866168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.622106481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>220319.9405383301</v>
+        <v>264826.8326474607</v>
       </c>
     </row>
     <row r="3">
@@ -16773,28 +16773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.1055261500185</v>
+        <v>148.9939362122466</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.1749001446641</v>
+        <v>203.8600766740608</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.8382079203862</v>
+        <v>184.403957075761</v>
       </c>
       <c r="AD3" t="n">
-        <v>125105.5261500185</v>
+        <v>148993.9362122465</v>
       </c>
       <c r="AE3" t="n">
-        <v>171174.9001446641</v>
+        <v>203860.0766740608</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.616183807387525e-06</v>
+        <v>6.785379195700975e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.270833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>154838.2079203862</v>
+        <v>184403.957075761</v>
       </c>
     </row>
     <row r="4">
@@ -16879,28 +16879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.134659664353</v>
+        <v>126.1083210726016</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.7451472158853</v>
+        <v>172.5469683979313</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.4080664991848</v>
+        <v>156.0793279052719</v>
       </c>
       <c r="AD4" t="n">
-        <v>102134.659664353</v>
+        <v>126108.3210726016</v>
       </c>
       <c r="AE4" t="n">
-        <v>139745.1472158853</v>
+        <v>172546.9683979313</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.94643694729699e-06</v>
+        <v>7.405063621110622e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.914930555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>126408.0664991848</v>
+        <v>156079.3279052719</v>
       </c>
     </row>
     <row r="5">
@@ -16985,28 +16985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.79796013893353</v>
+        <v>119.7716215471821</v>
       </c>
       <c r="AB5" t="n">
-        <v>131.0749953697578</v>
+        <v>163.8768165518038</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.5653817766144</v>
+        <v>148.2366431827014</v>
       </c>
       <c r="AD5" t="n">
-        <v>95797.96013893353</v>
+        <v>119771.6215471821</v>
       </c>
       <c r="AE5" t="n">
-        <v>131074.9953697578</v>
+        <v>163876.8165518038</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.126482824283353e-06</v>
+        <v>7.742900305595306e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.744212962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>118565.3817766144</v>
+        <v>148236.6431827014</v>
       </c>
     </row>
     <row r="6">
@@ -17091,28 +17091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>93.63241703474949</v>
+        <v>117.6060784429981</v>
       </c>
       <c r="AB6" t="n">
-        <v>128.1120037575956</v>
+        <v>160.9138249396416</v>
       </c>
       <c r="AC6" t="n">
-        <v>115.8851739253312</v>
+        <v>145.5564353314182</v>
       </c>
       <c r="AD6" t="n">
-        <v>93632.41703474949</v>
+        <v>117606.0784429981</v>
       </c>
       <c r="AE6" t="n">
-        <v>128112.0037575956</v>
+        <v>160913.8249396415</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.182637067565195e-06</v>
+        <v>7.848267691328448e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.69212962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>115885.1739253312</v>
+        <v>145556.4353314182</v>
       </c>
     </row>
   </sheetData>
@@ -17388,28 +17388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.84560152342533</v>
+        <v>101.2408395585535</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.0388098423236</v>
+        <v>138.5221831145711</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.39580763985778</v>
+        <v>125.3018203752587</v>
       </c>
       <c r="AD2" t="n">
-        <v>73845.60152342533</v>
+        <v>101240.8395585535</v>
       </c>
       <c r="AE2" t="n">
-        <v>101038.8098423236</v>
+        <v>138522.1831145711</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.100415555333046e-06</v>
+        <v>1.025482812527182e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.840856481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>91395.80763985778</v>
+        <v>125301.8203752587</v>
       </c>
     </row>
   </sheetData>
@@ -17685,28 +17685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.0195289362023</v>
+        <v>122.5621715388673</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.2193761575348</v>
+        <v>167.6949701608024</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.0279128892096</v>
+        <v>151.6903975700707</v>
       </c>
       <c r="AD2" t="n">
-        <v>101019.5289362023</v>
+        <v>122562.1715388673</v>
       </c>
       <c r="AE2" t="n">
-        <v>138219.3761575348</v>
+        <v>167694.9701608024</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.05354383778538e-06</v>
+        <v>8.347395771912313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.195601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>125027.9128892096</v>
+        <v>151690.3975700707</v>
       </c>
     </row>
     <row r="3">
@@ -17791,28 +17791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.62509374141204</v>
+        <v>100.2529876900976</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.5783219512849</v>
+        <v>137.1705606072018</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.31119789140479</v>
+        <v>124.0791948229782</v>
       </c>
       <c r="AD3" t="n">
-        <v>78625.09374141204</v>
+        <v>100252.9876900976</v>
       </c>
       <c r="AE3" t="n">
-        <v>107578.3219512849</v>
+        <v>137170.5606072018</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.558590756082371e-06</v>
+        <v>9.38743053633537e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.732638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>97311.19789140479</v>
+        <v>124079.1948229782</v>
       </c>
     </row>
   </sheetData>
@@ -18088,28 +18088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.7916394548065</v>
+        <v>154.4902205865551</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.2724500530288</v>
+        <v>211.3803354339393</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.499079381354</v>
+        <v>191.2064928943486</v>
       </c>
       <c r="AD2" t="n">
-        <v>120791.6394548065</v>
+        <v>154490.2205865551</v>
       </c>
       <c r="AE2" t="n">
-        <v>165272.4500530288</v>
+        <v>211380.3354339393</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.526133032775123e-06</v>
+        <v>6.985918740566669e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.644097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>149499.079381354</v>
+        <v>191206.4928943486</v>
       </c>
     </row>
     <row r="3">
@@ -18194,28 +18194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.46322490564802</v>
+        <v>109.9858395631948</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.671042921015</v>
+        <v>150.487477923087</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.2498065440281</v>
+        <v>136.1251642406504</v>
       </c>
       <c r="AD3" t="n">
-        <v>87463.22490564802</v>
+        <v>109985.8395631948</v>
       </c>
       <c r="AE3" t="n">
-        <v>119671.042921015</v>
+        <v>150487.477923087</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.303932357586047e-06</v>
+        <v>8.526882405037483e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.804976851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>108249.8065440281</v>
+        <v>136125.1642406504</v>
       </c>
     </row>
     <row r="4">
@@ -18300,28 +18300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.0256006985805</v>
+        <v>106.5482153561273</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.9675338236309</v>
+        <v>145.783968825703</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.9951937534805</v>
+        <v>131.8705514501027</v>
       </c>
       <c r="AD4" t="n">
-        <v>84025.6006985805</v>
+        <v>106548.2153561273</v>
       </c>
       <c r="AE4" t="n">
-        <v>114967.5338236309</v>
+        <v>145783.968825703</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.435527717081418e-06</v>
+        <v>8.787597040454062e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.69212962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>103995.1937534805</v>
+        <v>131870.5514501027</v>
       </c>
     </row>
   </sheetData>
